--- a/datasets/TABLAS.xlsx
+++ b/datasets/TABLAS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\ESP_DATOS\SEMESTRE2\MONOGRAFIA 2\MonografiaEAD-main\MonografiaEAD\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DDDCCF-FDC4-456F-910C-134D9E694C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BC2047-A77E-4485-BAA4-D167596C6522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="datasetsResults_96_24" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,9 @@
     <sheet name="datasetsResults_48_24" sheetId="4" r:id="rId3"/>
     <sheet name="datasetsResults_24_24" sheetId="5" r:id="rId4"/>
     <sheet name="MODELOS" sheetId="6" r:id="rId5"/>
-    <sheet name="Comparativo " sheetId="7" r:id="rId6"/>
+    <sheet name="Comparativo " sheetId="7" state="hidden" r:id="rId6"/>
     <sheet name="kfolds" sheetId="8" r:id="rId7"/>
-    <sheet name="Hoja2" sheetId="9" r:id="rId8"/>
+    <sheet name="Modelos final" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1161,7 +1161,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1250,6 +1250,27 @@
     <xf numFmtId="0" fontId="22" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="22" fillId="34" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="35" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1274,26 +1295,11 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1304,23 +1310,8 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="22" fillId="34" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="22" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="22" fillId="35" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1724,7 +1715,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="37" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1742,7 +1733,7 @@
       <c r="F2" s="4">
         <v>7.2411956399999999</v>
       </c>
-      <c r="I2" s="44" t="s">
+      <c r="I2" s="36" t="s">
         <v>9</v>
       </c>
       <c r="J2" s="22" t="s">
@@ -1762,7 +1753,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
+      <c r="A3" s="38"/>
       <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
@@ -1778,7 +1769,7 @@
       <c r="F3" s="6">
         <v>166.62392360000001</v>
       </c>
-      <c r="I3" s="39"/>
+      <c r="I3" s="33"/>
       <c r="J3" s="22" t="s">
         <v>7</v>
       </c>
@@ -1796,7 +1787,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="32"/>
+      <c r="A4" s="39"/>
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1812,7 +1803,7 @@
       <c r="F4" s="7">
         <v>27.405329170000002</v>
       </c>
-      <c r="I4" s="40"/>
+      <c r="I4" s="34"/>
       <c r="J4" s="23" t="s">
         <v>8</v>
       </c>
@@ -1830,7 +1821,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="37" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1848,7 +1839,7 @@
       <c r="F5" s="4">
         <v>9.8066889360000005</v>
       </c>
-      <c r="I5" s="38" t="s">
+      <c r="I5" s="32" t="s">
         <v>10</v>
       </c>
       <c r="J5" s="22" t="s">
@@ -1868,7 +1859,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
+      <c r="A6" s="38"/>
       <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
@@ -1884,7 +1875,7 @@
       <c r="F6" s="6">
         <v>87.102222819999994</v>
       </c>
-      <c r="I6" s="39"/>
+      <c r="I6" s="33"/>
       <c r="J6" s="22" t="s">
         <v>7</v>
       </c>
@@ -1902,7 +1893,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="32"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
@@ -1918,7 +1909,7 @@
       <c r="F7" s="7">
         <v>8.5082409170000002</v>
       </c>
-      <c r="I7" s="40"/>
+      <c r="I7" s="34"/>
       <c r="J7" s="23" t="s">
         <v>8</v>
       </c>
@@ -1936,7 +1927,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="37" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1954,7 +1945,7 @@
       <c r="F8" s="4">
         <v>5.3417045539999997</v>
       </c>
-      <c r="I8" s="38" t="s">
+      <c r="I8" s="32" t="s">
         <v>11</v>
       </c>
       <c r="J8" s="22" t="s">
@@ -1974,7 +1965,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
+      <c r="A9" s="38"/>
       <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
@@ -1990,7 +1981,7 @@
       <c r="F9" s="6">
         <v>162.14026569999999</v>
       </c>
-      <c r="I9" s="39"/>
+      <c r="I9" s="33"/>
       <c r="J9" s="22" t="s">
         <v>7</v>
       </c>
@@ -2008,7 +1999,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="32"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
@@ -2024,7 +2015,7 @@
       <c r="F10" s="7">
         <v>27.343032090000001</v>
       </c>
-      <c r="I10" s="40"/>
+      <c r="I10" s="34"/>
       <c r="J10" s="23" t="s">
         <v>8</v>
       </c>
@@ -2042,7 +2033,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="37" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -2060,7 +2051,7 @@
       <c r="F11" s="4">
         <v>6.7389365510000001</v>
       </c>
-      <c r="I11" s="38" t="s">
+      <c r="I11" s="32" t="s">
         <v>12</v>
       </c>
       <c r="J11" s="22" t="s">
@@ -2080,7 +2071,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
+      <c r="A12" s="38"/>
       <c r="B12" s="5" t="s">
         <v>7</v>
       </c>
@@ -2096,7 +2087,7 @@
       <c r="F12" s="6">
         <v>100.17296090000001</v>
       </c>
-      <c r="I12" s="39"/>
+      <c r="I12" s="33"/>
       <c r="J12" s="22" t="s">
         <v>7</v>
       </c>
@@ -2114,7 +2105,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="32"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="2" t="s">
         <v>8</v>
       </c>
@@ -2130,7 +2121,7 @@
       <c r="F13" s="7">
         <v>24.529801020000001</v>
       </c>
-      <c r="I13" s="40"/>
+      <c r="I13" s="34"/>
       <c r="J13" s="23" t="s">
         <v>8</v>
       </c>
@@ -2148,10 +2139,10 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="B14" s="41"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="27">
         <f>AVERAGE(C2:C13)</f>
         <v>49.269398521166671</v>
@@ -2168,10 +2159,10 @@
         <f>AVERAGE(F2:F13)</f>
         <v>52.746191824833339</v>
       </c>
-      <c r="I14" s="41" t="s">
+      <c r="I14" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="J14" s="41"/>
+      <c r="J14" s="35"/>
       <c r="K14" s="27">
         <f>AVERAGE(K2:K13)</f>
         <v>39.715717738525903</v>
@@ -2237,7 +2228,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="40" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -2257,7 +2248,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="34"/>
+      <c r="A3" s="41"/>
       <c r="B3" s="11" t="s">
         <v>7</v>
       </c>
@@ -2275,7 +2266,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="12" t="s">
         <v>8</v>
       </c>
@@ -2293,7 +2284,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="40" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="10" t="s">
@@ -2313,7 +2304,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="11" t="s">
         <v>7</v>
       </c>
@@ -2331,7 +2322,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="12" t="s">
         <v>8</v>
       </c>
@@ -2349,7 +2340,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="40" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -2369,7 +2360,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="11" t="s">
         <v>7</v>
       </c>
@@ -2387,7 +2378,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="12" t="s">
         <v>8</v>
       </c>
@@ -2405,7 +2396,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="40" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="10" t="s">
@@ -2425,7 +2416,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="11" t="s">
         <v>7</v>
       </c>
@@ -2443,7 +2434,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="12" t="s">
         <v>8</v>
       </c>
@@ -2461,14 +2452,14 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2513,7 +2504,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="40" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -2533,7 +2524,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="34"/>
+      <c r="A3" s="41"/>
       <c r="B3" s="11" t="s">
         <v>7</v>
       </c>
@@ -2551,7 +2542,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="12" t="s">
         <v>8</v>
       </c>
@@ -2569,7 +2560,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="40" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="10" t="s">
@@ -2589,7 +2580,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="11" t="s">
         <v>7</v>
       </c>
@@ -2607,7 +2598,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="12" t="s">
         <v>8</v>
       </c>
@@ -2625,7 +2616,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="40" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -2645,7 +2636,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="11" t="s">
         <v>7</v>
       </c>
@@ -2663,7 +2654,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="12" t="s">
         <v>8</v>
       </c>
@@ -2681,7 +2672,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="40" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="10" t="s">
@@ -2701,7 +2692,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="11" t="s">
         <v>7</v>
       </c>
@@ -2719,7 +2710,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="12" t="s">
         <v>8</v>
       </c>
@@ -2737,14 +2728,14 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2789,7 +2780,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="40" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -2809,7 +2800,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="34"/>
+      <c r="A3" s="41"/>
       <c r="B3" s="11" t="s">
         <v>7</v>
       </c>
@@ -2827,7 +2818,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="12" t="s">
         <v>8</v>
       </c>
@@ -2845,7 +2836,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="40" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="10" t="s">
@@ -2865,7 +2856,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="11" t="s">
         <v>7</v>
       </c>
@@ -2883,7 +2874,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="12" t="s">
         <v>8</v>
       </c>
@@ -2901,7 +2892,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="40" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -2921,7 +2912,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="11" t="s">
         <v>7</v>
       </c>
@@ -2939,7 +2930,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="12" t="s">
         <v>8</v>
       </c>
@@ -2957,7 +2948,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="40" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="10" t="s">
@@ -2977,7 +2968,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="11" t="s">
         <v>7</v>
       </c>
@@ -2995,7 +2986,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="12" t="s">
         <v>8</v>
       </c>
@@ -3013,34 +3004,34 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
@@ -3063,7 +3054,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="44" t="s">
+      <c r="A19" s="36" t="s">
         <v>9</v>
       </c>
       <c r="B19" s="22" t="s">
@@ -3083,7 +3074,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="39"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="22" t="s">
         <v>7</v>
       </c>
@@ -3101,7 +3092,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="40"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="23" t="s">
         <v>8</v>
       </c>
@@ -3119,7 +3110,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="38" t="s">
+      <c r="A22" s="32" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="22" t="s">
@@ -3139,7 +3130,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="39"/>
+      <c r="A23" s="33"/>
       <c r="B23" s="22" t="s">
         <v>7</v>
       </c>
@@ -3157,7 +3148,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="40"/>
+      <c r="A24" s="34"/>
       <c r="B24" s="23" t="s">
         <v>8</v>
       </c>
@@ -3175,7 +3166,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="32" t="s">
         <v>11</v>
       </c>
       <c r="B25" s="22" t="s">
@@ -3195,7 +3186,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="39"/>
+      <c r="A26" s="33"/>
       <c r="B26" s="22" t="s">
         <v>7</v>
       </c>
@@ -3213,7 +3204,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="40"/>
+      <c r="A27" s="34"/>
       <c r="B27" s="23" t="s">
         <v>8</v>
       </c>
@@ -3231,7 +3222,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="38" t="s">
+      <c r="A28" s="32" t="s">
         <v>12</v>
       </c>
       <c r="B28" s="22" t="s">
@@ -3251,7 +3242,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="39"/>
+      <c r="A29" s="33"/>
       <c r="B29" s="22" t="s">
         <v>7</v>
       </c>
@@ -3269,7 +3260,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="40"/>
+      <c r="A30" s="34"/>
       <c r="B30" s="23" t="s">
         <v>8</v>
       </c>
@@ -3287,10 +3278,10 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="41" t="s">
+      <c r="A31" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="B31" s="41"/>
+      <c r="B31" s="35"/>
       <c r="C31" s="27">
         <f>AVERAGE(C19:C30)</f>
         <v>47.594505644166667</v>
@@ -3310,11 +3301,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:F14"/>
     <mergeCell ref="A28:A30"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A16:F16"/>
@@ -3322,6 +3308,11 @@
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:F14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3344,16 +3335,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="E1" s="42" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="E1" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -3496,11 +3487,11 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
       <c r="E10" s="20">
         <v>7</v>
       </c>
@@ -3513,25 +3504,25 @@
     </row>
     <row r="11" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
-      <c r="E11" s="45" t="s">
+      <c r="E11" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="42"/>
-      <c r="E13" s="42" t="s">
+      <c r="C13" s="45"/>
+      <c r="E13" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
@@ -3694,11 +3685,11 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
       <c r="E23" s="19">
         <v>8</v>
       </c>
@@ -3747,23 +3738,23 @@
     </row>
     <row r="27" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16"/>
-      <c r="E27" s="45" t="s">
+      <c r="E27" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="42" t="s">
+      <c r="A30" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="42"/>
-      <c r="C30" s="42"/>
-      <c r="E30" s="42" t="s">
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="E30" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
@@ -3906,11 +3897,11 @@
       </c>
     </row>
     <row r="39" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="45" t="s">
+      <c r="A39" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="45"/>
-      <c r="C39" s="45"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="47"/>
       <c r="E39" s="20">
         <v>7</v>
       </c>
@@ -3922,11 +3913,11 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E40" s="45" t="s">
+      <c r="E40" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="F40" s="45"/>
-      <c r="G40" s="45"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="47"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
@@ -4099,11 +4090,11 @@
       </c>
     </row>
     <row r="52" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="45" t="s">
+      <c r="A52" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="B52" s="45"/>
-      <c r="C52" s="45"/>
+      <c r="B52" s="47"/>
+      <c r="C52" s="47"/>
       <c r="E52" s="19">
         <v>8</v>
       </c>
@@ -4148,14 +4139,20 @@
       </c>
     </row>
     <row r="56" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E56" s="45" t="s">
+      <c r="E56" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="F56" s="45"/>
-      <c r="G56" s="45"/>
+      <c r="F56" s="47"/>
+      <c r="G56" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="E27:G27"/>
     <mergeCell ref="A39:C39"/>
@@ -4164,12 +4161,6 @@
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="E13:G13"/>
     <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A23:C23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4180,46 +4171,46 @@
   <dimension ref="A2:T17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="H2" s="42" t="s">
+      <c r="H2" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="H3" s="43" t="s">
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="H3" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="O3" s="43" t="s">
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="O3" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="43"/>
-      <c r="T3" s="43"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="46"/>
+      <c r="T3" s="46"/>
     </row>
     <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
@@ -4278,7 +4269,7 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="36" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="22" t="s">
@@ -4296,7 +4287,7 @@
       <c r="F5" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="H5" s="44" t="s">
+      <c r="H5" s="36" t="s">
         <v>9</v>
       </c>
       <c r="I5" s="22" t="s">
@@ -4314,7 +4305,7 @@
       <c r="M5" s="25">
         <v>18.906953359039701</v>
       </c>
-      <c r="O5" s="44" t="s">
+      <c r="O5" s="36" t="s">
         <v>9</v>
       </c>
       <c r="P5" s="22" t="s">
@@ -4334,7 +4325,7 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="39"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="22" t="s">
         <v>7</v>
       </c>
@@ -4350,7 +4341,7 @@
       <c r="F6" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="H6" s="39"/>
+      <c r="H6" s="33"/>
       <c r="I6" s="22" t="s">
         <v>7</v>
       </c>
@@ -4366,7 +4357,7 @@
       <c r="M6" s="25">
         <v>122.667803781622</v>
       </c>
-      <c r="O6" s="39"/>
+      <c r="O6" s="33"/>
       <c r="P6" s="22" t="s">
         <v>7</v>
       </c>
@@ -4384,7 +4375,7 @@
       </c>
     </row>
     <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="40"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="23" t="s">
         <v>8</v>
       </c>
@@ -4400,7 +4391,7 @@
       <c r="F7" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="H7" s="40"/>
+      <c r="H7" s="34"/>
       <c r="I7" s="23" t="s">
         <v>8</v>
       </c>
@@ -4416,7 +4407,7 @@
       <c r="M7" s="26">
         <v>38.2852563789383</v>
       </c>
-      <c r="O7" s="40"/>
+      <c r="O7" s="34"/>
       <c r="P7" s="23" t="s">
         <v>8</v>
       </c>
@@ -4434,7 +4425,7 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="32" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="22" t="s">
@@ -4452,7 +4443,7 @@
       <c r="F8" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="H8" s="38" t="s">
+      <c r="H8" s="32" t="s">
         <v>10</v>
       </c>
       <c r="I8" s="22" t="s">
@@ -4470,7 +4461,7 @@
       <c r="M8" s="25">
         <v>17.860901927117499</v>
       </c>
-      <c r="O8" s="38" t="s">
+      <c r="O8" s="32" t="s">
         <v>10</v>
       </c>
       <c r="P8" s="22" t="s">
@@ -4490,7 +4481,7 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="22" t="s">
         <v>7</v>
       </c>
@@ -4506,7 +4497,7 @@
       <c r="F9" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="H9" s="39"/>
+      <c r="H9" s="33"/>
       <c r="I9" s="22" t="s">
         <v>7</v>
       </c>
@@ -4522,7 +4513,7 @@
       <c r="M9" s="25">
         <v>80.775600935678895</v>
       </c>
-      <c r="O9" s="39"/>
+      <c r="O9" s="33"/>
       <c r="P9" s="22" t="s">
         <v>7</v>
       </c>
@@ -4540,7 +4531,7 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="40"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="23" t="s">
         <v>8</v>
       </c>
@@ -4556,7 +4547,7 @@
       <c r="F10" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="H10" s="40"/>
+      <c r="H10" s="34"/>
       <c r="I10" s="23" t="s">
         <v>8</v>
       </c>
@@ -4572,7 +4563,7 @@
       <c r="M10" s="26">
         <v>14.4156425680896</v>
       </c>
-      <c r="O10" s="40"/>
+      <c r="O10" s="34"/>
       <c r="P10" s="23" t="s">
         <v>8</v>
       </c>
@@ -4590,7 +4581,7 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="32" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="22" t="s">
@@ -4608,7 +4599,7 @@
       <c r="F11" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="H11" s="38" t="s">
+      <c r="H11" s="32" t="s">
         <v>11</v>
       </c>
       <c r="I11" s="22" t="s">
@@ -4626,7 +4617,7 @@
       <c r="M11" s="25">
         <v>17.4635491376897</v>
       </c>
-      <c r="O11" s="38" t="s">
+      <c r="O11" s="32" t="s">
         <v>11</v>
       </c>
       <c r="P11" s="22" t="s">
@@ -4646,7 +4637,7 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="22" t="s">
         <v>7</v>
       </c>
@@ -4662,7 +4653,7 @@
       <c r="F12" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="H12" s="39"/>
+      <c r="H12" s="33"/>
       <c r="I12" s="22" t="s">
         <v>7</v>
       </c>
@@ -4678,7 +4669,7 @@
       <c r="M12" s="25">
         <v>98.6358459357577</v>
       </c>
-      <c r="O12" s="39"/>
+      <c r="O12" s="33"/>
       <c r="P12" s="22" t="s">
         <v>7</v>
       </c>
@@ -4696,7 +4687,7 @@
       </c>
     </row>
     <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="40"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="23" t="s">
         <v>8</v>
       </c>
@@ -4712,7 +4703,7 @@
       <c r="F13" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="H13" s="40"/>
+      <c r="H13" s="34"/>
       <c r="I13" s="23" t="s">
         <v>8</v>
       </c>
@@ -4728,7 +4719,7 @@
       <c r="M13" s="26">
         <v>14.819081311126</v>
       </c>
-      <c r="O13" s="40"/>
+      <c r="O13" s="34"/>
       <c r="P13" s="23" t="s">
         <v>8</v>
       </c>
@@ -4746,7 +4737,7 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="32" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="22" t="s">
@@ -4764,7 +4755,7 @@
       <c r="F14" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="H14" s="38" t="s">
+      <c r="H14" s="32" t="s">
         <v>12</v>
       </c>
       <c r="I14" s="22" t="s">
@@ -4782,7 +4773,7 @@
       <c r="M14" s="25">
         <v>14.340931474714701</v>
       </c>
-      <c r="O14" s="38" t="s">
+      <c r="O14" s="32" t="s">
         <v>12</v>
       </c>
       <c r="P14" s="22" t="s">
@@ -4802,7 +4793,7 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="22" t="s">
         <v>7</v>
       </c>
@@ -4818,7 +4809,7 @@
       <c r="F15" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="H15" s="39"/>
+      <c r="H15" s="33"/>
       <c r="I15" s="22" t="s">
         <v>7</v>
       </c>
@@ -4834,7 +4825,7 @@
       <c r="M15" s="25">
         <v>111.12563751123299</v>
       </c>
-      <c r="O15" s="39"/>
+      <c r="O15" s="33"/>
       <c r="P15" s="22" t="s">
         <v>7</v>
       </c>
@@ -4852,7 +4843,7 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="40"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="23" t="s">
         <v>8</v>
       </c>
@@ -4868,7 +4859,7 @@
       <c r="F16" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="H16" s="40"/>
+      <c r="H16" s="34"/>
       <c r="I16" s="23" t="s">
         <v>8</v>
       </c>
@@ -4884,7 +4875,7 @@
       <c r="M16" s="26">
         <v>13.4605795495932</v>
       </c>
-      <c r="O16" s="40"/>
+      <c r="O16" s="34"/>
       <c r="P16" s="23" t="s">
         <v>8</v>
       </c>
@@ -4902,10 +4893,10 @@
       </c>
     </row>
     <row r="17" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="B17" s="41"/>
+      <c r="B17" s="35"/>
       <c r="C17" s="24" t="s">
         <v>116</v>
       </c>
@@ -4918,10 +4909,10 @@
       <c r="F17" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="H17" s="41" t="s">
+      <c r="H17" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="I17" s="41"/>
+      <c r="I17" s="35"/>
       <c r="J17" s="27">
         <f>AVERAGE(J5:J16)</f>
         <v>37.682455706866186</v>
@@ -4938,10 +4929,10 @@
         <f>AVERAGE(M5:M16)</f>
         <v>46.896481989216689</v>
       </c>
-      <c r="O17" s="41" t="s">
+      <c r="O17" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="P17" s="41"/>
+      <c r="P17" s="35"/>
       <c r="Q17" s="27">
         <f>AVERAGE(Q5:Q16)</f>
         <v>42.905420200107649</v>
@@ -4961,6 +4952,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:B17"/>
     <mergeCell ref="O8:O10"/>
     <mergeCell ref="O11:O13"/>
     <mergeCell ref="O14:O16"/>
@@ -4968,18 +4966,11 @@
     <mergeCell ref="O17:P17"/>
     <mergeCell ref="H3:M3"/>
     <mergeCell ref="O3:T3"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:B17"/>
     <mergeCell ref="H5:H7"/>
     <mergeCell ref="H8:H10"/>
     <mergeCell ref="H11:H13"/>
     <mergeCell ref="H14:H16"/>
     <mergeCell ref="H17:I17"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="O5:O7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4989,8 +4980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{005C22BC-533F-4229-BF94-D8B8AC903599}">
   <dimension ref="A2:U36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21:U36"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5004,40 +4995,40 @@
       <c r="D2" s="50"/>
       <c r="E2" s="50"/>
       <c r="F2" s="50"/>
-      <c r="I2" s="42" t="s">
+      <c r="I2" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="I3" s="43" t="s">
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="I3" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="P3" s="42" t="s">
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="P3" s="45" t="s">
         <v>143</v>
       </c>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
     </row>
     <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
@@ -5076,17 +5067,17 @@
       <c r="N4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="43" t="s">
+      <c r="P4" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
     </row>
     <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="36" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="22" t="s">
@@ -5095,16 +5086,16 @@
       <c r="C5" s="25">
         <v>15.5871567708333</v>
       </c>
-      <c r="D5" s="53">
+      <c r="D5" s="25">
         <v>8.7038082946235296</v>
       </c>
-      <c r="E5" s="53">
+      <c r="E5" s="25">
         <v>9.0880390946195</v>
       </c>
       <c r="F5" s="25">
         <v>18.906953359039701</v>
       </c>
-      <c r="I5" s="44" t="s">
+      <c r="I5" s="36" t="s">
         <v>9</v>
       </c>
       <c r="J5" s="22" t="s">
@@ -5113,10 +5104,10 @@
       <c r="K5" s="25">
         <v>16.072262660793701</v>
       </c>
-      <c r="L5" s="53">
+      <c r="L5" s="25">
         <v>8.7758439600311693</v>
       </c>
-      <c r="M5" s="53">
+      <c r="M5" s="25">
         <v>8.7254201401313107</v>
       </c>
       <c r="N5" s="25">
@@ -5142,39 +5133,39 @@
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="39"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="22" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="25">
         <v>95.589965072835199</v>
       </c>
-      <c r="D6" s="53">
+      <c r="D6" s="25">
         <v>16.288753162777901</v>
       </c>
-      <c r="E6" s="53">
+      <c r="E6" s="25">
         <v>17.028374153884901</v>
       </c>
       <c r="F6" s="25">
         <v>122.667803781622</v>
       </c>
-      <c r="I6" s="39"/>
+      <c r="I6" s="33"/>
       <c r="J6" s="22" t="s">
         <v>7</v>
       </c>
       <c r="K6" s="25">
         <v>99.786264344821504</v>
       </c>
-      <c r="L6" s="53">
+      <c r="L6" s="25">
         <v>123.24021457425</v>
       </c>
-      <c r="M6" s="53">
+      <c r="M6" s="25">
         <v>70.413725364830995</v>
       </c>
       <c r="N6" s="25">
         <v>110.424203390595</v>
       </c>
-      <c r="P6" s="44" t="s">
+      <c r="P6" s="36" t="s">
         <v>9</v>
       </c>
       <c r="Q6" s="22" t="s">
@@ -5194,39 +5185,39 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="40"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="23" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="26">
         <v>35.1983199057345</v>
       </c>
-      <c r="D7" s="49">
+      <c r="D7" s="26">
         <v>25.136536232795699</v>
       </c>
-      <c r="E7" s="49">
+      <c r="E7" s="26">
         <v>21.9501597575258</v>
       </c>
-      <c r="F7" s="49">
+      <c r="F7" s="26">
         <v>38.2852563789383</v>
       </c>
-      <c r="I7" s="40"/>
+      <c r="I7" s="34"/>
       <c r="J7" s="23" t="s">
         <v>8</v>
       </c>
       <c r="K7" s="26">
         <v>31.283433117980898</v>
       </c>
-      <c r="L7" s="49">
+      <c r="L7" s="26">
         <v>23.043063883986001</v>
       </c>
-      <c r="M7" s="49">
+      <c r="M7" s="26">
         <v>20.178798627995299</v>
       </c>
-      <c r="N7" s="48">
+      <c r="N7" s="30">
         <v>34.796496741644503</v>
       </c>
-      <c r="P7" s="39"/>
+      <c r="P7" s="33"/>
       <c r="Q7" s="22" t="s">
         <v>7</v>
       </c>
@@ -5244,7 +5235,7 @@
       </c>
     </row>
     <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="32" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="22" t="s">
@@ -5253,16 +5244,16 @@
       <c r="C8" s="25">
         <v>14.5197016768391</v>
       </c>
-      <c r="D8" s="53">
+      <c r="D8" s="25">
         <v>8.0913411458549493</v>
       </c>
-      <c r="E8" s="53">
+      <c r="E8" s="25">
         <v>8.5214845467507807</v>
       </c>
       <c r="F8" s="25">
         <v>17.860901927117499</v>
       </c>
-      <c r="I8" s="38" t="s">
+      <c r="I8" s="32" t="s">
         <v>10</v>
       </c>
       <c r="J8" s="22" t="s">
@@ -5271,16 +5262,16 @@
       <c r="K8" s="25">
         <v>22.990025069715699</v>
       </c>
-      <c r="L8" s="53">
+      <c r="L8" s="25">
         <v>12.676504503755099</v>
       </c>
-      <c r="M8" s="53">
+      <c r="M8" s="25">
         <v>13.852664322077301</v>
       </c>
       <c r="N8" s="25">
         <v>26.341937925959598</v>
       </c>
-      <c r="P8" s="40"/>
+      <c r="P8" s="34"/>
       <c r="Q8" s="23" t="s">
         <v>8</v>
       </c>
@@ -5298,39 +5289,39 @@
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="22" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="25">
         <v>56.033311092529203</v>
       </c>
-      <c r="D9" s="53">
+      <c r="D9" s="25">
         <v>10.051690747872</v>
       </c>
-      <c r="E9" s="53">
+      <c r="E9" s="25">
         <v>10.1392493754726</v>
       </c>
       <c r="F9" s="25">
         <v>80.775600935678895</v>
       </c>
-      <c r="I9" s="39"/>
+      <c r="I9" s="33"/>
       <c r="J9" s="22" t="s">
         <v>7</v>
       </c>
       <c r="K9" s="25">
         <v>66.553096484578404</v>
       </c>
-      <c r="L9" s="53">
+      <c r="L9" s="25">
         <v>82.618987455487698</v>
       </c>
-      <c r="M9" s="53">
+      <c r="M9" s="25">
         <v>55.378317975987002</v>
       </c>
       <c r="N9" s="25">
         <v>70.887568921560202</v>
       </c>
-      <c r="P9" s="38" t="s">
+      <c r="P9" s="32" t="s">
         <v>10</v>
       </c>
       <c r="Q9" s="22" t="s">
@@ -5350,39 +5341,39 @@
       </c>
     </row>
     <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="40"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="23" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="26">
         <v>11.4761264827813</v>
       </c>
-      <c r="D10" s="49">
+      <c r="D10" s="26">
         <v>8.1996334336188905</v>
       </c>
-      <c r="E10" s="49">
+      <c r="E10" s="26">
         <v>7.7838611482239299</v>
       </c>
-      <c r="F10" s="48">
+      <c r="F10" s="30">
         <v>14.4156425680896</v>
       </c>
-      <c r="I10" s="40"/>
+      <c r="I10" s="34"/>
       <c r="J10" s="23" t="s">
         <v>8</v>
       </c>
       <c r="K10" s="26">
         <v>16.608431694641101</v>
       </c>
-      <c r="L10" s="49">
+      <c r="L10" s="26">
         <v>12.365261251003799</v>
       </c>
-      <c r="M10" s="49">
+      <c r="M10" s="26">
         <v>11.362068303783699</v>
       </c>
       <c r="N10" s="26">
         <v>19.458166527181898</v>
       </c>
-      <c r="P10" s="39"/>
+      <c r="P10" s="33"/>
       <c r="Q10" s="22" t="s">
         <v>7</v>
       </c>
@@ -5400,7 +5391,7 @@
       </c>
     </row>
     <row r="11" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="32" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="22" t="s">
@@ -5409,16 +5400,16 @@
       <c r="C11" s="25">
         <v>14.8492368013509</v>
       </c>
-      <c r="D11" s="53">
+      <c r="D11" s="25">
         <v>8.2501892160465502</v>
       </c>
-      <c r="E11" s="53">
+      <c r="E11" s="25">
         <v>8.2089138266165005</v>
       </c>
       <c r="F11" s="25">
         <v>17.4635491376897</v>
       </c>
-      <c r="I11" s="38" t="s">
+      <c r="I11" s="32" t="s">
         <v>11</v>
       </c>
       <c r="J11" s="22" t="s">
@@ -5427,16 +5418,16 @@
       <c r="K11" s="25">
         <v>18.315168775872099</v>
       </c>
-      <c r="L11" s="53">
+      <c r="L11" s="25">
         <v>9.9687851945568298</v>
       </c>
-      <c r="M11" s="53">
+      <c r="M11" s="25">
         <v>10.3952122416958</v>
       </c>
       <c r="N11" s="25">
         <v>22.6645083370672</v>
       </c>
-      <c r="P11" s="40"/>
+      <c r="P11" s="34"/>
       <c r="Q11" s="23" t="s">
         <v>8</v>
       </c>
@@ -5454,39 +5445,39 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="22" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="25">
         <v>82.544289509548605</v>
       </c>
-      <c r="D12" s="53">
+      <c r="D12" s="25">
         <v>15.0107648918096</v>
       </c>
-      <c r="E12" s="53">
+      <c r="E12" s="25">
         <v>14.0393034144659</v>
       </c>
       <c r="F12" s="25">
         <v>98.6358459357577</v>
       </c>
-      <c r="I12" s="39"/>
+      <c r="I12" s="33"/>
       <c r="J12" s="22" t="s">
         <v>7</v>
       </c>
       <c r="K12" s="25">
         <v>72.391976175808296</v>
       </c>
-      <c r="L12" s="53">
+      <c r="L12" s="25">
         <v>89.325626678953995</v>
       </c>
-      <c r="M12" s="53">
+      <c r="M12" s="25">
         <v>58.518701623107503</v>
       </c>
       <c r="N12" s="25">
         <v>76.784173284725895</v>
       </c>
-      <c r="P12" s="38" t="s">
+      <c r="P12" s="32" t="s">
         <v>11</v>
       </c>
       <c r="Q12" s="22" t="s">
@@ -5506,39 +5497,39 @@
       </c>
     </row>
     <row r="13" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="40"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="23" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="26">
         <v>11.848620913018101</v>
       </c>
-      <c r="D13" s="49">
+      <c r="D13" s="26">
         <v>8.4584387326490909</v>
       </c>
-      <c r="E13" s="49">
+      <c r="E13" s="26">
         <v>7.9895289197488299</v>
       </c>
-      <c r="F13" s="48">
+      <c r="F13" s="30">
         <v>14.819081311126</v>
       </c>
-      <c r="I13" s="40"/>
+      <c r="I13" s="34"/>
       <c r="J13" s="23" t="s">
         <v>8</v>
       </c>
       <c r="K13" s="26">
         <v>23.411030069274901</v>
       </c>
-      <c r="L13" s="49">
+      <c r="L13" s="26">
         <v>17.1341810238162</v>
       </c>
-      <c r="M13" s="49">
+      <c r="M13" s="26">
         <v>15.4870284503927</v>
       </c>
       <c r="N13" s="26">
         <v>25.934145300507801</v>
       </c>
-      <c r="P13" s="39"/>
+      <c r="P13" s="33"/>
       <c r="Q13" s="22" t="s">
         <v>7</v>
       </c>
@@ -5556,7 +5547,7 @@
       </c>
     </row>
     <row r="14" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="32" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="22" t="s">
@@ -5565,16 +5556,16 @@
       <c r="C14" s="25">
         <v>12.0063292828369</v>
       </c>
-      <c r="D14" s="53">
+      <c r="D14" s="25">
         <v>6.7002277188028696</v>
       </c>
-      <c r="E14" s="53">
+      <c r="E14" s="25">
         <v>6.85743728879625</v>
       </c>
       <c r="F14" s="25">
         <v>14.340931474714701</v>
       </c>
-      <c r="I14" s="38" t="s">
+      <c r="I14" s="32" t="s">
         <v>12</v>
       </c>
       <c r="J14" s="22" t="s">
@@ -5583,16 +5574,16 @@
       <c r="K14" s="25">
         <v>14.0496187961832</v>
       </c>
-      <c r="L14" s="53">
+      <c r="L14" s="25">
         <v>7.8230631793690497</v>
       </c>
-      <c r="M14" s="53">
+      <c r="M14" s="25">
         <v>8.3085382325721007</v>
       </c>
       <c r="N14" s="25">
         <v>17.826211418884501</v>
       </c>
-      <c r="P14" s="40"/>
+      <c r="P14" s="34"/>
       <c r="Q14" s="23" t="s">
         <v>8</v>
       </c>
@@ -5610,39 +5601,39 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="22" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="25">
         <v>91.452200957302495</v>
       </c>
-      <c r="D15" s="53">
+      <c r="D15" s="25">
         <v>14.817293400579899</v>
       </c>
-      <c r="E15" s="53">
+      <c r="E15" s="25">
         <v>16.358236916971499</v>
       </c>
       <c r="F15" s="25">
         <v>111.12563751123299</v>
       </c>
-      <c r="I15" s="39"/>
+      <c r="I15" s="33"/>
       <c r="J15" s="22" t="s">
         <v>7</v>
       </c>
       <c r="K15" s="25">
         <v>59.201194582485599</v>
       </c>
-      <c r="L15" s="53">
+      <c r="L15" s="25">
         <v>73.400785285324503</v>
       </c>
-      <c r="M15" s="53">
+      <c r="M15" s="25">
         <v>50.939118008081898</v>
       </c>
       <c r="N15" s="25">
         <v>63.551574265362397</v>
       </c>
-      <c r="P15" s="38" t="s">
+      <c r="P15" s="32" t="s">
         <v>12</v>
       </c>
       <c r="Q15" s="22" t="s">
@@ -5662,39 +5653,39 @@
       </c>
     </row>
     <row r="16" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="40"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="23" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="26">
         <v>11.084210016784599</v>
       </c>
-      <c r="D16" s="49">
+      <c r="D16" s="26">
         <v>8.0190261354980201</v>
       </c>
-      <c r="E16" s="49">
+      <c r="E16" s="26">
         <v>8.1301517281209108</v>
       </c>
-      <c r="F16" s="51">
+      <c r="F16" s="31">
         <v>13.4605795495932</v>
       </c>
-      <c r="I16" s="40"/>
+      <c r="I16" s="34"/>
       <c r="J16" s="23" t="s">
         <v>8</v>
       </c>
       <c r="K16" s="26">
         <v>8.9732010117933498</v>
       </c>
-      <c r="L16" s="49">
+      <c r="L16" s="26">
         <v>6.8676512428955299</v>
       </c>
-      <c r="M16" s="49">
+      <c r="M16" s="26">
         <v>6.7403124720119596</v>
       </c>
-      <c r="N16" s="48">
+      <c r="N16" s="30">
         <v>11.068140133762199</v>
       </c>
-      <c r="P16" s="39"/>
+      <c r="P16" s="33"/>
       <c r="Q16" s="22" t="s">
         <v>7</v>
       </c>
@@ -5712,10 +5703,10 @@
       </c>
     </row>
     <row r="17" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="B17" s="41"/>
+      <c r="B17" s="35"/>
       <c r="C17" s="27">
         <f>AVERAGE(C5:C16)</f>
         <v>37.682455706866186</v>
@@ -5724,7 +5715,7 @@
         <f>AVERAGE(D5:D16)</f>
         <v>11.477308592744082</v>
       </c>
-      <c r="E17" s="52">
+      <c r="E17" s="27">
         <f>AVERAGE(E5:E16)</f>
         <v>11.341228347599786</v>
       </c>
@@ -5732,10 +5723,10 @@
         <f>AVERAGE(F5:F16)</f>
         <v>46.896481989216689</v>
       </c>
-      <c r="I17" s="41" t="s">
+      <c r="I17" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="J17" s="41"/>
+      <c r="J17" s="35"/>
       <c r="K17" s="27">
         <f>AVERAGE(K5:K16)</f>
         <v>37.469641898662388</v>
@@ -5744,7 +5735,7 @@
         <f>AVERAGE(L5:L16)</f>
         <v>38.936664019452486</v>
       </c>
-      <c r="M17" s="52">
+      <c r="M17" s="27">
         <f>AVERAGE(M5:M16)</f>
         <v>27.524992146888962</v>
       </c>
@@ -5752,7 +5743,7 @@
         <f>AVERAGE(N5:N16)</f>
         <v>41.516213445549518</v>
       </c>
-      <c r="P17" s="40"/>
+      <c r="P17" s="34"/>
       <c r="Q17" s="23" t="s">
         <v>8</v>
       </c>
@@ -5770,10 +5761,10 @@
       </c>
     </row>
     <row r="18" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P18" s="41" t="s">
+      <c r="P18" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="Q18" s="41"/>
+      <c r="Q18" s="35"/>
       <c r="R18" s="27">
         <f>AVERAGE(R6:R17)</f>
         <v>43.957088533706553</v>
@@ -5782,7 +5773,7 @@
         <f>AVERAGE(S6:S17)</f>
         <v>45.986054358422372</v>
       </c>
-      <c r="T18" s="52">
+      <c r="T18" s="27">
         <f>AVERAGE(T6:T17)</f>
         <v>30.630020999324088</v>
       </c>
@@ -5792,48 +5783,48 @@
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="I20" s="42" t="s">
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="I20" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
-      <c r="N20" s="42"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
     </row>
     <row r="21" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="I21" s="43" t="s">
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="I21" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="43"/>
-      <c r="P21" s="42" t="s">
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="46"/>
+      <c r="P21" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="Q21" s="42"/>
-      <c r="R21" s="42"/>
-      <c r="S21" s="42"/>
-      <c r="T21" s="42"/>
-      <c r="U21" s="42"/>
+      <c r="Q21" s="45"/>
+      <c r="R21" s="45"/>
+      <c r="S21" s="45"/>
+      <c r="T21" s="45"/>
+      <c r="U21" s="45"/>
     </row>
     <row r="22" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="21" t="s">
@@ -5872,17 +5863,17 @@
       <c r="N22" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="P22" s="43" t="s">
+      <c r="P22" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="Q22" s="43"/>
-      <c r="R22" s="43"/>
-      <c r="S22" s="43"/>
-      <c r="T22" s="43"/>
-      <c r="U22" s="43"/>
+      <c r="Q22" s="46"/>
+      <c r="R22" s="46"/>
+      <c r="S22" s="46"/>
+      <c r="T22" s="46"/>
+      <c r="U22" s="46"/>
     </row>
     <row r="23" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="44" t="s">
+      <c r="A23" s="36" t="s">
         <v>9</v>
       </c>
       <c r="B23" s="22" t="s">
@@ -5900,7 +5891,7 @@
       <c r="F23" s="25">
         <v>31.917545183220302</v>
       </c>
-      <c r="I23" s="44" t="s">
+      <c r="I23" s="36" t="s">
         <v>9</v>
       </c>
       <c r="J23" s="22" t="s">
@@ -5938,7 +5929,7 @@
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="39"/>
+      <c r="A24" s="33"/>
       <c r="B24" s="22" t="s">
         <v>7</v>
       </c>
@@ -5954,7 +5945,7 @@
       <c r="F24" s="25">
         <v>196.298731724936</v>
       </c>
-      <c r="I24" s="39"/>
+      <c r="I24" s="33"/>
       <c r="J24" s="22" t="s">
         <v>7</v>
       </c>
@@ -5970,7 +5961,7 @@
       <c r="N24" s="25">
         <v>118.02514502883</v>
       </c>
-      <c r="P24" s="44" t="s">
+      <c r="P24" s="36" t="s">
         <v>9</v>
       </c>
       <c r="Q24" s="22" t="s">
@@ -5990,7 +5981,7 @@
       </c>
     </row>
     <row r="25" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="40"/>
+      <c r="A25" s="34"/>
       <c r="B25" s="23" t="s">
         <v>8</v>
       </c>
@@ -6003,10 +5994,10 @@
       <c r="E25" s="26">
         <v>20.891560040294799</v>
       </c>
-      <c r="F25" s="49">
+      <c r="F25" s="26">
         <v>37.028440442511702</v>
       </c>
-      <c r="I25" s="40"/>
+      <c r="I25" s="34"/>
       <c r="J25" s="23" t="s">
         <v>8</v>
       </c>
@@ -6019,10 +6010,10 @@
       <c r="M25" s="26">
         <v>31.9940648739938</v>
       </c>
-      <c r="N25" s="49">
+      <c r="N25" s="26">
         <v>54.827016495757597</v>
       </c>
-      <c r="P25" s="39"/>
+      <c r="P25" s="33"/>
       <c r="Q25" s="22" t="s">
         <v>7</v>
       </c>
@@ -6040,7 +6031,7 @@
       </c>
     </row>
     <row r="26" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="32" t="s">
         <v>10</v>
       </c>
       <c r="B26" s="22" t="s">
@@ -6058,7 +6049,7 @@
       <c r="F26" s="25">
         <v>19.519790801289101</v>
       </c>
-      <c r="I26" s="38" t="s">
+      <c r="I26" s="32" t="s">
         <v>10</v>
       </c>
       <c r="J26" s="22" t="s">
@@ -6076,7 +6067,7 @@
       <c r="N26" s="25">
         <v>17.3667188239159</v>
       </c>
-      <c r="P26" s="40"/>
+      <c r="P26" s="34"/>
       <c r="Q26" s="23" t="s">
         <v>8</v>
       </c>
@@ -6094,7 +6085,7 @@
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="39"/>
+      <c r="A27" s="33"/>
       <c r="B27" s="22" t="s">
         <v>7</v>
       </c>
@@ -6110,7 +6101,7 @@
       <c r="F27" s="25">
         <v>75.934261430550293</v>
       </c>
-      <c r="I27" s="39"/>
+      <c r="I27" s="33"/>
       <c r="J27" s="22" t="s">
         <v>7</v>
       </c>
@@ -6126,7 +6117,7 @@
       <c r="N27" s="25">
         <v>74.467829104469899</v>
       </c>
-      <c r="P27" s="38" t="s">
+      <c r="P27" s="32" t="s">
         <v>10</v>
       </c>
       <c r="Q27" s="22" t="s">
@@ -6146,7 +6137,7 @@
       </c>
     </row>
     <row r="28" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="40"/>
+      <c r="A28" s="34"/>
       <c r="B28" s="23" t="s">
         <v>8</v>
       </c>
@@ -6162,7 +6153,7 @@
       <c r="F28" s="26">
         <v>20.5844380822757</v>
       </c>
-      <c r="I28" s="40"/>
+      <c r="I28" s="34"/>
       <c r="J28" s="23" t="s">
         <v>8</v>
       </c>
@@ -6178,7 +6169,7 @@
       <c r="N28" s="26">
         <v>51.266458583479299</v>
       </c>
-      <c r="P28" s="39"/>
+      <c r="P28" s="33"/>
       <c r="Q28" s="22" t="s">
         <v>7</v>
       </c>
@@ -6196,7 +6187,7 @@
       </c>
     </row>
     <row r="29" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="32" t="s">
         <v>11</v>
       </c>
       <c r="B29" s="22" t="s">
@@ -6214,7 +6205,7 @@
       <c r="F29" s="25">
         <v>19.115260745814499</v>
       </c>
-      <c r="I29" s="38" t="s">
+      <c r="I29" s="32" t="s">
         <v>11</v>
       </c>
       <c r="J29" s="22" t="s">
@@ -6232,7 +6223,7 @@
       <c r="N29" s="25">
         <v>22.499358360564301</v>
       </c>
-      <c r="P29" s="40"/>
+      <c r="P29" s="34"/>
       <c r="Q29" s="23" t="s">
         <v>8</v>
       </c>
@@ -6250,7 +6241,7 @@
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
+      <c r="A30" s="33"/>
       <c r="B30" s="22" t="s">
         <v>7</v>
       </c>
@@ -6266,7 +6257,7 @@
       <c r="F30" s="25">
         <v>74.737300061698406</v>
       </c>
-      <c r="I30" s="39"/>
+      <c r="I30" s="33"/>
       <c r="J30" s="22" t="s">
         <v>7</v>
       </c>
@@ -6282,7 +6273,7 @@
       <c r="N30" s="25">
         <v>59.223576809070302</v>
       </c>
-      <c r="P30" s="38" t="s">
+      <c r="P30" s="32" t="s">
         <v>11</v>
       </c>
       <c r="Q30" s="22" t="s">
@@ -6302,7 +6293,7 @@
       </c>
     </row>
     <row r="31" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="40"/>
+      <c r="A31" s="34"/>
       <c r="B31" s="23" t="s">
         <v>8</v>
       </c>
@@ -6318,7 +6309,7 @@
       <c r="F31" s="26">
         <v>22.241447372926199</v>
       </c>
-      <c r="I31" s="40"/>
+      <c r="I31" s="34"/>
       <c r="J31" s="23" t="s">
         <v>8</v>
       </c>
@@ -6334,7 +6325,7 @@
       <c r="N31" s="26">
         <v>23.0513267548681</v>
       </c>
-      <c r="P31" s="39"/>
+      <c r="P31" s="33"/>
       <c r="Q31" s="22" t="s">
         <v>7</v>
       </c>
@@ -6352,7 +6343,7 @@
       </c>
     </row>
     <row r="32" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="38" t="s">
+      <c r="A32" s="32" t="s">
         <v>12</v>
       </c>
       <c r="B32" s="22" t="s">
@@ -6370,7 +6361,7 @@
       <c r="F32" s="25">
         <v>15.7095222054184</v>
       </c>
-      <c r="I32" s="38" t="s">
+      <c r="I32" s="32" t="s">
         <v>12</v>
       </c>
       <c r="J32" s="22" t="s">
@@ -6388,7 +6379,7 @@
       <c r="N32" s="25">
         <v>18.307888403607699</v>
       </c>
-      <c r="P32" s="40"/>
+      <c r="P32" s="34"/>
       <c r="Q32" s="23" t="s">
         <v>8</v>
       </c>
@@ -6406,7 +6397,7 @@
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A33" s="39"/>
+      <c r="A33" s="33"/>
       <c r="B33" s="22" t="s">
         <v>7</v>
       </c>
@@ -6422,7 +6413,7 @@
       <c r="F33" s="25">
         <v>89.025665392349197</v>
       </c>
-      <c r="I33" s="39"/>
+      <c r="I33" s="33"/>
       <c r="J33" s="22" t="s">
         <v>7</v>
       </c>
@@ -6438,7 +6429,7 @@
       <c r="N33" s="25">
         <v>47.8657778793213</v>
       </c>
-      <c r="P33" s="38" t="s">
+      <c r="P33" s="32" t="s">
         <v>12</v>
       </c>
       <c r="Q33" s="22" t="s">
@@ -6458,7 +6449,7 @@
       </c>
     </row>
     <row r="34" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="40"/>
+      <c r="A34" s="34"/>
       <c r="B34" s="23" t="s">
         <v>8</v>
       </c>
@@ -6474,7 +6465,7 @@
       <c r="F34" s="26">
         <v>27.642360136125099</v>
       </c>
-      <c r="I34" s="40"/>
+      <c r="I34" s="34"/>
       <c r="J34" s="23" t="s">
         <v>8</v>
       </c>
@@ -6484,13 +6475,13 @@
       <c r="L34" s="26">
         <v>13.299510559890299</v>
       </c>
-      <c r="M34" s="49">
+      <c r="M34" s="26">
         <v>12.2708957980559</v>
       </c>
       <c r="N34" s="26">
         <v>21.129867050654902</v>
       </c>
-      <c r="P34" s="39"/>
+      <c r="P34" s="33"/>
       <c r="Q34" s="22" t="s">
         <v>7</v>
       </c>
@@ -6508,10 +6499,10 @@
       </c>
     </row>
     <row r="35" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="41" t="s">
+      <c r="A35" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="B35" s="41"/>
+      <c r="B35" s="35"/>
       <c r="C35" s="27">
         <f>AVERAGE(C23:C34)</f>
         <v>47.594505644166667</v>
@@ -6520,7 +6511,7 @@
         <f>AVERAGE(D23:D34)</f>
         <v>51.069131274025246</v>
       </c>
-      <c r="E35" s="52">
+      <c r="E35" s="27">
         <f>AVERAGE(E23:E34)</f>
         <v>32.09763357756762</v>
       </c>
@@ -6528,10 +6519,10 @@
         <f>AVERAGE(F23:F34)</f>
         <v>52.479563631592917</v>
       </c>
-      <c r="I35" s="41" t="s">
+      <c r="I35" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="J35" s="41"/>
+      <c r="J35" s="35"/>
       <c r="K35" s="27">
         <f>AVERAGE(K23:K34)</f>
         <v>39.715717738525903</v>
@@ -6540,7 +6531,7 @@
         <f>AVERAGE(L23:L34)</f>
         <v>34.582791515518728</v>
       </c>
-      <c r="M35" s="52">
+      <c r="M35" s="27">
         <f>AVERAGE(M23:M34)</f>
         <v>25.735498183184006</v>
       </c>
@@ -6548,7 +6539,7 @@
         <f>AVERAGE(N23:N34)</f>
         <v>44.664489594210572</v>
       </c>
-      <c r="P35" s="40"/>
+      <c r="P35" s="34"/>
       <c r="Q35" s="23" t="s">
         <v>8</v>
       </c>
@@ -6566,10 +6557,10 @@
       </c>
     </row>
     <row r="36" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P36" s="41" t="s">
+      <c r="P36" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="Q36" s="41"/>
+      <c r="Q36" s="35"/>
       <c r="R36" s="27">
         <f>AVERAGE(R24:R35)</f>
         <v>37.031204768252827</v>
@@ -6578,7 +6569,7 @@
         <f>AVERAGE(S24:S35)</f>
         <v>35.134602737306757</v>
       </c>
-      <c r="T36" s="52">
+      <c r="T36" s="27">
         <f>AVERAGE(T24:T35)</f>
         <v>25.773734955390442</v>
       </c>
@@ -6589,13 +6580,25 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="P30:P32"/>
+    <mergeCell ref="P33:P35"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="P15:P17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P21:U21"/>
+    <mergeCell ref="P22:U22"/>
+    <mergeCell ref="P24:P26"/>
+    <mergeCell ref="P27:P29"/>
+    <mergeCell ref="P3:U3"/>
+    <mergeCell ref="P4:U4"/>
+    <mergeCell ref="P6:P8"/>
+    <mergeCell ref="P9:P11"/>
+    <mergeCell ref="P12:P14"/>
+    <mergeCell ref="I21:N21"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="I26:I28"/>
+    <mergeCell ref="I29:I31"/>
+    <mergeCell ref="I32:I34"/>
     <mergeCell ref="I35:J35"/>
     <mergeCell ref="A32:A34"/>
     <mergeCell ref="A35:B35"/>
@@ -6612,25 +6615,13 @@
     <mergeCell ref="A21:F21"/>
     <mergeCell ref="A23:A25"/>
     <mergeCell ref="A26:A28"/>
-    <mergeCell ref="I21:N21"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="I26:I28"/>
-    <mergeCell ref="I29:I31"/>
-    <mergeCell ref="I32:I34"/>
-    <mergeCell ref="P3:U3"/>
-    <mergeCell ref="P4:U4"/>
-    <mergeCell ref="P6:P8"/>
-    <mergeCell ref="P9:P11"/>
-    <mergeCell ref="P12:P14"/>
-    <mergeCell ref="P30:P32"/>
-    <mergeCell ref="P33:P35"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="P15:P17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P21:U21"/>
-    <mergeCell ref="P22:U22"/>
-    <mergeCell ref="P24:P26"/>
-    <mergeCell ref="P27:P29"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6640,7 +6631,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01E050C8-3ED7-477B-A372-7D02380C7A54}">
   <dimension ref="A2:N36"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
@@ -6655,36 +6646,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H2" s="42" t="s">
+      <c r="H2" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="L2" s="42" t="s">
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="L2" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="45" t="s">
         <v>145</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
       <c r="H4" s="9" t="s">
         <v>16</v>
       </c>
@@ -6743,7 +6734,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="36" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="22" t="s">
@@ -6781,7 +6772,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="22" t="s">
         <v>7</v>
       </c>
@@ -6817,7 +6808,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="40"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="23" t="s">
         <v>8</v>
       </c>
@@ -6853,7 +6844,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="32" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="22" t="s">
@@ -6891,7 +6882,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="39"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="22" t="s">
         <v>7</v>
       </c>
@@ -6927,7 +6918,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="40"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="23" t="s">
         <v>8</v>
       </c>
@@ -6943,11 +6934,11 @@
       <c r="F11" s="26">
         <v>32.773581291259603</v>
       </c>
-      <c r="H11" s="45" t="s">
+      <c r="H11" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
       <c r="L11" s="20">
         <v>7</v>
       </c>
@@ -6959,7 +6950,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="32" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="22" t="s">
@@ -6977,14 +6968,14 @@
       <c r="F12" s="25">
         <v>34.865207469966499</v>
       </c>
-      <c r="L12" s="45" t="s">
+      <c r="L12" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="M12" s="45"/>
-      <c r="N12" s="45"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="22" t="s">
         <v>7</v>
       </c>
@@ -7002,7 +6993,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="40"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="23" t="s">
         <v>8</v>
       </c>
@@ -7028,7 +7019,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="32" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="22" t="s">
@@ -7048,7 +7039,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="22" t="s">
         <v>7</v>
       </c>
@@ -7084,7 +7075,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="40"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="23" t="s">
         <v>8</v>
       </c>
@@ -7120,10 +7111,10 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="B18" s="41"/>
+      <c r="B18" s="35"/>
       <c r="C18" s="27">
         <f>AVERAGE(C6:C17)</f>
         <v>34.780892931547051</v>
@@ -7132,7 +7123,7 @@
         <f>AVERAGE(D6:D17)</f>
         <v>30.795094526922885</v>
       </c>
-      <c r="E18" s="52">
+      <c r="E18" s="27">
         <f>AVERAGE(E6:E17)</f>
         <v>29.272743994962479</v>
       </c>
@@ -7200,14 +7191,14 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="42" t="s">
+      <c r="A21" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
       <c r="H21" s="19">
         <v>5</v>
       </c>
@@ -7228,14 +7219,14 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
       <c r="H22" s="19">
         <v>6</v>
       </c>
@@ -7294,7 +7285,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="44" t="s">
+      <c r="A24" s="36" t="s">
         <v>9</v>
       </c>
       <c r="B24" s="22" t="s">
@@ -7312,11 +7303,11 @@
       <c r="F24" s="25">
         <v>49.557096607022899</v>
       </c>
-      <c r="H24" s="45" t="s">
+      <c r="H24" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
       <c r="L24" s="19">
         <v>8</v>
       </c>
@@ -7328,7 +7319,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="39"/>
+      <c r="A25" s="33"/>
       <c r="B25" s="22" t="s">
         <v>7</v>
       </c>
@@ -7355,7 +7346,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="40"/>
+      <c r="A26" s="34"/>
       <c r="B26" s="23" t="s">
         <v>8</v>
       </c>
@@ -7382,7 +7373,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="38" t="s">
+      <c r="A27" s="32" t="s">
         <v>10</v>
       </c>
       <c r="B27" s="22" t="s">
@@ -7411,7 +7402,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="39"/>
+      <c r="A28" s="33"/>
       <c r="B28" s="22" t="s">
         <v>7</v>
       </c>
@@ -7427,14 +7418,14 @@
       <c r="F28" s="25">
         <v>32.002059863423398</v>
       </c>
-      <c r="L28" s="45" t="s">
+      <c r="L28" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="M28" s="45"/>
-      <c r="N28" s="45"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="47"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="40"/>
+      <c r="A29" s="34"/>
       <c r="B29" s="23" t="s">
         <v>8</v>
       </c>
@@ -7452,7 +7443,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="32" t="s">
         <v>11</v>
       </c>
       <c r="B30" s="22" t="s">
@@ -7472,7 +7463,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="39"/>
+      <c r="A31" s="33"/>
       <c r="B31" s="22" t="s">
         <v>7</v>
       </c>
@@ -7490,7 +7481,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="40"/>
+      <c r="A32" s="34"/>
       <c r="B32" s="23" t="s">
         <v>8</v>
       </c>
@@ -7508,7 +7499,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="38" t="s">
+      <c r="A33" s="32" t="s">
         <v>12</v>
       </c>
       <c r="B33" s="22" t="s">
@@ -7528,7 +7519,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="39"/>
+      <c r="A34" s="33"/>
       <c r="B34" s="22" t="s">
         <v>7</v>
       </c>
@@ -7546,7 +7537,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="40"/>
+      <c r="A35" s="34"/>
       <c r="B35" s="23" t="s">
         <v>8</v>
       </c>
@@ -7564,10 +7555,10 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="41" t="s">
+      <c r="A36" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="B36" s="41"/>
+      <c r="B36" s="35"/>
       <c r="C36" s="27">
         <f>AVERAGE(C24:C35)</f>
         <v>36.122629382419397</v>
@@ -7576,7 +7567,7 @@
         <f>AVERAGE(D24:D35)</f>
         <v>29.352741650017915</v>
       </c>
-      <c r="E36" s="52">
+      <c r="E36" s="27">
         <f>AVERAGE(E24:E35)</f>
         <v>31.826780645357335</v>
       </c>
@@ -7587,6 +7578,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:A29"/>
     <mergeCell ref="A30:A32"/>
     <mergeCell ref="A33:A35"/>
     <mergeCell ref="A36:B36"/>
@@ -7603,33 +7598,12 @@
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="L28:N28"/>
     <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A27:A29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="e8f19e6c-1161-4652-93d9-88acaed7769a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010090D4911148DC91419FDC788884320A40" ma:contentTypeVersion="16" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="7c943d09a1960cded9d108837ed6b488">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e8f19e6c-1161-4652-93d9-88acaed7769a" xmlns:ns4="aa21e446-fe5b-4093-aa3a-d1ed43976e3b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0e9addfe9c294826836d5486122f641f" ns3:_="" ns4:_="">
     <xsd:import namespace="e8f19e6c-1161-4652-93d9-88acaed7769a"/>
@@ -7870,32 +7844,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4C3F9B8-F532-4A88-9B4E-E316C070985A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e8f19e6c-1161-4652-93d9-88acaed7769a"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="aa21e446-fe5b-4093-aa3a-d1ed43976e3b"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25CDE9CA-4495-49FD-B62F-8590DE44F68C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="e8f19e6c-1161-4652-93d9-88acaed7769a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0714B85A-4E70-4B73-B71F-1F0ED98B9082}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7912,4 +7878,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25CDE9CA-4495-49FD-B62F-8590DE44F68C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4C3F9B8-F532-4A88-9B4E-E316C070985A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e8f19e6c-1161-4652-93d9-88acaed7769a"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="aa21e446-fe5b-4093-aa3a-d1ed43976e3b"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>